--- a/AllorNone_MidMatch_Test Cases.xlsx
+++ b/AllorNone_MidMatch_Test Cases.xlsx
@@ -349,7 +349,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -393,11 +392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126875520"/>
-        <c:axId val="126877056"/>
+        <c:axId val="169994880"/>
+        <c:axId val="172847872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126875520"/>
+        <c:axId val="169994880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126877056"/>
+        <c:crossAx val="172847872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -414,7 +413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126877056"/>
+        <c:axId val="172847872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,14 +424,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126875520"/>
+        <c:crossAx val="169994880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -680,14 +678,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" customWidth="1"/>
